--- a/tabellen/concept/5.1/arceringsbibliotheken-concept-5.1.xlsx
+++ b/tabellen/concept/5.1/arceringsbibliotheken-concept-5.1.xlsx
@@ -5,25 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D71FD238-2D45-4BA4-A912-6F23CA1AB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ABCDFB78-D25E-4802-94E6-B8F2420FDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1767C15B-A993-4984-AAC0-0F751BA126B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ADF4A6B3-1A78-4F08-9519-7A6C42E04ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="arceringsbibliotheken-concept-5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'arceringsbibliotheken-concept-5'!$A$1:$A$36</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>abibliotheekURI</t>
   </si>
@@ -106,7 +103,7 @@
     <t>AOB</t>
   </si>
   <si>
-    <t>Arceringsbibliotheek</t>
+    <t>Arceringsbibliotheek Oever- en Bodembescherming</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/360fec3b-e589-4a66-8a92-2abf8dff244e</t>
@@ -178,6 +175,9 @@
     <t>AMC</t>
   </si>
   <si>
+    <t>Arceringsbibliotheek Mechanische Constructies</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/93b2daee-afb6-4e61-a0d7-ebd64434d60f</t>
   </si>
   <si>
@@ -217,6 +217,9 @@
     <t>AFV</t>
   </si>
   <si>
+    <t>Arceringsbibliotheek FaunaVoorzieningen</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/99a2e084-d1a5-47fa-8279-38ee26a51ba4</t>
   </si>
   <si>
@@ -250,7 +253,7 @@
     <t>AAL</t>
   </si>
   <si>
-    <t>Arceringen Algemeen</t>
+    <t>Arceringsbibliotheek Algemeen</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/59249589-0af5-4392-8772-c34627fb94a1</t>
@@ -1200,18 +1203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10590349-501A-4567-9A39-0DA0DD64F975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A33471-02FE-4A42-BB54-AFF988981B4A}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1400,37 +1399,37 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1438,205 +1437,205 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
